--- a/Health/Covid19/TestedCasesSG.xlsx
+++ b/Health/Covid19/TestedCasesSG.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\junen\Documents\BAVP\Health\Covid19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4256558-77CE-4891-9F06-6A9253440724}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD7EDD73-B237-4873-A1C9-4A6602C46DEF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestedCasesSG" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -524,9 +524,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -881,34 +882,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.109375" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" customWidth="1"/>
+    <col min="6" max="6" width="23.21875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>43928</v>
       </c>
@@ -928,7 +939,7 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>43935</v>
       </c>
@@ -948,7 +959,7 @@
         <v>3252</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>43941</v>
       </c>
@@ -968,7 +979,7 @@
         <v>8014</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>43948</v>
       </c>
@@ -988,7 +999,7 @@
         <v>14423</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>43955</v>
       </c>
@@ -1008,7 +1019,7 @@
         <v>18778</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>43961</v>
       </c>
@@ -1028,7 +1039,7 @@
         <v>23336</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>43969</v>
       </c>
@@ -1048,7 +1059,7 @@
         <v>45793</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>43976</v>
       </c>
